--- a/FigsTables/SuppTables.xlsx
+++ b/FigsTables/SuppTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/WildCaptive_SeqTech/FigsTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="624" documentId="8_{56994E78-0D0F-423F-96A0-7E8295E94F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBEAB685-F2B7-4767-934F-454A61F66D52}"/>
+  <xr:revisionPtr revIDLastSave="645" documentId="8_{56994E78-0D0F-423F-96A0-7E8295E94F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74825DED-24E9-46EC-939B-B5F08F9584C6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F729A4CA-F102-4347-A089-5DE75D0FF591}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{F729A4CA-F102-4347-A089-5DE75D0FF591}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="1" r:id="rId1"/>
@@ -2589,9 +2589,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>Table S6. OTUs that significantly contribute to Bray-Curtis dissimilarity between Captive and Wild content microbiotas.</t>
-  </si>
-  <si>
     <t>Alpha Diversity Metric</t>
   </si>
   <si>
@@ -2647,42 +2644,6 @@
   </si>
   <si>
     <t>Kiritimatiellaeota Relative Abundance</t>
-  </si>
-  <si>
-    <t>Table S4. Effect size and power for alpha diversity comparisons between paired Content and Mucosa samples in each experimental group.</t>
-  </si>
-  <si>
-    <t>Table S5. Effect size and power for Wild vs. Captive group comparisons of alpha diversity and phyla relative abundances.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Table S6. PERMANOVA results from beta diversity comparison of Content and Mucosa beta diversity in each experimental group. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Three beta diversity metrics were tested: weighted UniFrac, unweighted UniFrac, and Bray-Curtis dissimilarity. Two variables were included in each PERMANOVA test: squirrel ID and sample type.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Table S7. Phyla relative abundances in summer Captive and Wild content microbiotas. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Phyla have total relative abundances &gt; 1% and are displayed from overall highest relative abundance to lowest relative abundance. Relative abundances are displayed as mean ± standard error.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2716,21 +2677,6 @@
   </si>
   <si>
     <r>
-      <t>Table S11. Phyla relative abundances in content microbiotas of captive groups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Phyla have total relative abundance &gt;1% and are displayed from overall highest relative abundance to lowest relative abundance. Relative abundances are displayed as mean ± standard error.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Table S12. Core OTUs in mucosa microbiotas across captive groups. </t>
     </r>
     <r>
@@ -2759,6 +2705,138 @@
       <t>X's in a captive group column indicate that the OTU is a core OTU in that group, while empty cells indicate that the OTU is not a core OTU in the group.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Table S5. Effect size and power for Wild vs. Captive group comparisons of alpha diversity and phyla relative abundances.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Effect sizes were calculated in R using cohen.d (effsize package [83]), and power was calculated using pwr.t2n.test (pwr package [86]).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Table S11. Phyla relative abundances in content microbiotas of captive groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Phyla have total relative abundance &gt;1% and are displayed from overall highest relative abundance to lowest relative abundance. Relative abundances are displayed as mean ± standard error and adjusted p-values are from ANOVA and Tukey's HSD, or from Kruskal-Wallis and Dunn's tests, depending on data normality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table S7. Phyla relative abundances in summer Captive and Wild content microbiotas. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phyla have total relative abundances &gt; 1% and are displayed from overall highest relative abundance to lowest relative abundance. Relative abundances are displayed as mean ± standard error and adjusted p-values are from t-tests or Wilcoxon Rank Sum tests, depending on data normality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table S6. OTUs that significantly contribute to Bray-Curtis dissimilarity between Captive and Wild content microbiotas. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OTUs were identified with SIMPER and statistically tested with Kruskal-Wallis tests. P-values were corrected for false discovery rate using the Benjamini-Hochberg procedure. Only OTUs that accounted for ≥ 1% of the differences in beta diversity and had adj P &lt; 0.05 were considered significant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Table S4. Effect size and power for alpha diversity comparisons between paired content and mucosa samples in each experimental group.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Effect sizes were calculated in R using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cohen.d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (effsize package [83]), and power was calculated using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pwr.t2n.test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (pwr package [86]).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table S6. PERMANOVA results from beta diversity comparison of content and mucosa beta diversity in each experimental group. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Three beta diversity metrics (weighted UniFrac, unweighted UniFrac, and Bray-Curtis dissimilarity) and two variables (squirrel ID and sample type) were tested.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2767,7 +2845,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2842,6 +2920,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2892,7 +2978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2958,16 +3044,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2976,11 +3070,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3297,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7E20A2-4090-4D21-B9BE-0070BCCDCA6A}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4242,7 +4331,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BC059-D88F-4B93-8FC7-C24F44C59A6D}">
   <dimension ref="A1:I344"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4259,7 +4350,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13241,16 +13332,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -13274,19 +13365,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>739</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="42" t="s">
         <v>740</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="41" t="s">
         <v>741</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="41" t="s">
         <v>742</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -13294,29 +13385,29 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="14" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>746</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -13324,11 +13415,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="14" t="s">
         <v>708</v>
       </c>
@@ -13495,17 +13586,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13537,7 +13628,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -18491,7 +18582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D063291-6F7D-45CC-9501-C4E8F70B30A0}">
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -18512,7 +18603,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -23262,9 +23353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14AEADC-F9CD-4237-8C30-87E0FB784D66}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23354,7 +23443,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23689,8 +23778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D6CDF-B937-40E7-BC2A-5D1A1ACE4828}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23704,7 +23793,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23712,16 +23801,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>812</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -23732,7 +23821,7 @@
         <v>3.0709170000000001</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D4" s="28">
         <v>0.64730750000000004</v>
@@ -23742,28 +23831,28 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0.90222880000000005</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0.13839850000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="D5" s="41">
-        <v>0.90222880000000005</v>
-      </c>
-      <c r="E5" s="41">
-        <v>0.13839850000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40" t="s">
-        <v>815</v>
-      </c>
-      <c r="D6" s="41">
+      <c r="D6" s="34">
         <v>0.52130949999999998</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="34">
         <v>7.9203969999999999E-2</v>
       </c>
     </row>
@@ -23771,7 +23860,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D7" s="26">
         <v>0.2315921</v>
@@ -23788,7 +23877,7 @@
         <v>1.6317219999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D8" s="5">
         <v>0.17048679999999999</v>
@@ -23800,7 +23889,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D9" s="5">
         <v>4.7352480000000002E-2</v>
@@ -23812,7 +23901,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D10" s="5">
         <v>0.74188089999999995</v>
@@ -23825,7 +23914,7 @@
       <c r="A11" s="27"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D11" s="26">
         <v>0.24172630000000001</v>
@@ -23842,7 +23931,7 @@
         <v>2.0244390000000001</v>
       </c>
       <c r="C12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D12" s="5">
         <v>0.1861612</v>
@@ -23854,7 +23943,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D13" s="5">
         <v>0.28599160000000001</v>
@@ -23866,7 +23955,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D14" s="5">
         <v>0.16975599999999999</v>
@@ -23879,7 +23968,7 @@
       <c r="A15" s="27"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D15" s="26">
         <v>0.15815370000000001</v>
@@ -23896,7 +23985,7 @@
         <v>1.6317219999999999</v>
       </c>
       <c r="C16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D16" s="5">
         <v>0.28092089999999997</v>
@@ -23908,7 +23997,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D17" s="5">
         <v>2.1886840000000001E-2</v>
@@ -23920,7 +24009,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D18" s="5">
         <v>0.1399599</v>
@@ -23933,7 +24022,7 @@
       <c r="A19" s="27"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D19" s="26">
         <v>0.21854589999999999</v>
@@ -23950,7 +24039,7 @@
         <v>3.0709170000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D20" s="5">
         <v>0.14065949999999999</v>
@@ -23961,7 +24050,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D21" s="5">
         <v>0.16336629999999999</v>
@@ -23972,7 +24061,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D22" s="5">
         <v>0.43358960000000002</v>
@@ -23985,7 +24074,7 @@
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D23" s="26">
         <v>0.24288660000000001</v>
@@ -24005,7 +24094,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24019,7 +24108,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -24027,16 +24116,16 @@
         <v>801</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>808</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -24047,7 +24136,7 @@
         <v>2.132304</v>
       </c>
       <c r="C4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D4" s="5">
         <v>2.9448660000000002</v>
@@ -24059,7 +24148,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D5" s="5">
         <v>2.8456329999999999</v>
@@ -24071,7 +24160,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D6" s="5">
         <v>1.983765</v>
@@ -24082,8 +24171,8 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="40" t="s">
-        <v>816</v>
+      <c r="C7" s="33" t="s">
+        <v>815</v>
       </c>
       <c r="D7" s="5">
         <v>5.0540580000000002E-2</v>
@@ -24095,7 +24184,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D8" s="5">
         <v>1.0085230000000001</v>
@@ -24107,7 +24196,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D9" s="5">
         <v>0.70421149999999999</v>
@@ -24119,7 +24208,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D10" s="5">
         <v>0.30573689999999998</v>
@@ -24131,7 +24220,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D11" s="5">
         <v>1.3493390000000001</v>
@@ -24143,7 +24232,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D12" s="5">
         <v>5.6713829999999996</v>
@@ -24155,7 +24244,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D13" s="5">
         <v>0.41284989999999999</v>
@@ -24167,7 +24256,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D14" s="5">
         <v>0.29082920000000001</v>
@@ -24179,7 +24268,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D15" s="5">
         <v>2.386911</v>
@@ -24192,7 +24281,7 @@
       <c r="A16" s="27"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D16" s="26">
         <v>0.59249989999999997</v>
@@ -24208,8 +24297,8 @@
       <c r="B17" s="5">
         <v>1.974137</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>813</v>
+      <c r="C17" s="33" t="s">
+        <v>812</v>
       </c>
       <c r="D17" s="5">
         <v>4.0123470000000001</v>
@@ -24219,8 +24308,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="40" t="s">
-        <v>814</v>
+      <c r="C18" s="33" t="s">
+        <v>813</v>
       </c>
       <c r="D18" s="5">
         <v>3.6243300000000001</v>
@@ -24230,8 +24319,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="40" t="s">
-        <v>815</v>
+      <c r="C19" s="33" t="s">
+        <v>814</v>
       </c>
       <c r="D19" s="5">
         <v>0.67335880000000004</v>
@@ -24241,8 +24330,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="40" t="s">
-        <v>816</v>
+      <c r="C20" s="33" t="s">
+        <v>815</v>
       </c>
       <c r="D20" s="5">
         <v>0.31520490000000001</v>
@@ -24253,7 +24342,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D21" s="5">
         <v>1.175883</v>
@@ -24264,7 +24353,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D22" s="5">
         <v>1.7407870000000001</v>
@@ -24275,7 +24364,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D23" s="5">
         <v>2.8997109999999999</v>
@@ -24286,7 +24375,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D24" s="5">
         <v>0.83160889999999998</v>
@@ -24297,7 +24386,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D25" s="5">
         <v>0.44630799999999998</v>
@@ -24308,7 +24397,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D26" s="5">
         <v>0.61730980000000002</v>
@@ -24319,7 +24408,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D27" s="5">
         <v>0.97715339999999995</v>
@@ -24330,7 +24419,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D28" s="5">
         <v>0.93446949999999995</v>
@@ -24341,7 +24430,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D29" s="5">
         <v>2.1245020000000001</v>
@@ -24352,7 +24441,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D30" s="5">
         <v>0.43673899999999999</v>
@@ -24363,7 +24452,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D31" s="5">
         <v>8.5900199999999996E-2</v>
@@ -24381,7 +24470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD0966D-7830-4305-B270-CB50DF0D47A6}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24393,7 +24484,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -24908,6 +24999,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24916,7 +25008,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24928,14 +25020,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -24989,7 +25081,7 @@
       <c r="C7" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="35">
         <v>1</v>
       </c>
     </row>
@@ -25100,7 +25192,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25119,7 +25211,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -25235,7 +25327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2A3ED-3B14-494D-B74A-165618471B89}">
   <dimension ref="A1:I345"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25252,7 +25346,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/FigsTables/SuppTables.xlsx
+++ b/FigsTables/SuppTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/WildCaptive_SeqTech/FigsTables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/WildCaptive_SeqTech/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="645" documentId="8_{56994E78-0D0F-423F-96A0-7E8295E94F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74825DED-24E9-46EC-939B-B5F08F9584C6}"/>
+  <xr:revisionPtr revIDLastSave="647" documentId="8_{56994E78-0D0F-423F-96A0-7E8295E94F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{937463BE-D799-4811-BC0E-76B0CA74F0BA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{F729A4CA-F102-4347-A089-5DE75D0FF591}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F729A4CA-F102-4347-A089-5DE75D0FF591}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="1" r:id="rId1"/>
@@ -2580,9 +2580,6 @@
     <t>Summer Captive</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -2703,21 +2700,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>X's in a captive group column indicate that the OTU is a core OTU in that group, while empty cells indicate that the OTU is not a core OTU in the group.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Table S5. Effect size and power for Wild vs. Captive group comparisons of alpha diversity and phyla relative abundances.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Effect sizes were calculated in R using cohen.d (effsize package [83]), and power was calculated using pwr.t2n.test (pwr package [86]).</t>
     </r>
   </si>
   <si>
@@ -2837,6 +2819,80 @@
       <t>Three beta diversity metrics (weighted UniFrac, unweighted UniFrac, and Bray-Curtis dissimilarity) and two variables (squirrel ID and sample type) were tested.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Table S5. Effect size and power for Wild vs. Captive group comparisons of alpha diversity and phyla relative abundances.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Effect sizes were calculated in R using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cohen.d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (effsize package [83]), and power was calculated using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pwr.t2n.test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (pwr package [86]).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2845,7 +2901,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2922,6 +2978,15 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3052,22 +3117,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3386,7 +3451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7E20A2-4090-4D21-B9BE-0070BCCDCA6A}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -4350,7 +4415,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13332,16 +13397,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -13365,19 +13430,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>739</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>740</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>741</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>742</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -13385,29 +13450,29 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="14" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="42" t="s">
         <v>743</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="42" t="s">
         <v>744</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="42" t="s">
         <v>745</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="42" t="s">
         <v>746</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -13415,11 +13480,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="14" t="s">
         <v>708</v>
       </c>
@@ -13586,17 +13651,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13628,7 +13693,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -18582,7 +18647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D063291-6F7D-45CC-9501-C4E8F70B30A0}">
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -18603,7 +18668,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -23778,7 +23843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D6CDF-B937-40E7-BC2A-5D1A1ACE4828}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -23793,7 +23858,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23801,16 +23866,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>811</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -23821,7 +23886,7 @@
         <v>3.0709170000000001</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D4" s="28">
         <v>0.64730750000000004</v>
@@ -23834,7 +23899,7 @@
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
       <c r="C5" s="33" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D5" s="34">
         <v>0.90222880000000005</v>
@@ -23847,7 +23912,7 @@
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="33" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D6" s="34">
         <v>0.52130949999999998</v>
@@ -23860,7 +23925,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D7" s="26">
         <v>0.2315921</v>
@@ -23877,7 +23942,7 @@
         <v>1.6317219999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D8" s="5">
         <v>0.17048679999999999</v>
@@ -23889,7 +23954,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D9" s="5">
         <v>4.7352480000000002E-2</v>
@@ -23901,7 +23966,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D10" s="5">
         <v>0.74188089999999995</v>
@@ -23914,7 +23979,7 @@
       <c r="A11" s="27"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D11" s="26">
         <v>0.24172630000000001</v>
@@ -23931,7 +23996,7 @@
         <v>2.0244390000000001</v>
       </c>
       <c r="C12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D12" s="5">
         <v>0.1861612</v>
@@ -23943,7 +24008,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D13" s="5">
         <v>0.28599160000000001</v>
@@ -23955,7 +24020,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D14" s="5">
         <v>0.16975599999999999</v>
@@ -23968,7 +24033,7 @@
       <c r="A15" s="27"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D15" s="26">
         <v>0.15815370000000001</v>
@@ -23985,7 +24050,7 @@
         <v>1.6317219999999999</v>
       </c>
       <c r="C16" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D16" s="5">
         <v>0.28092089999999997</v>
@@ -23997,7 +24062,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D17" s="5">
         <v>2.1886840000000001E-2</v>
@@ -24009,7 +24074,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D18" s="5">
         <v>0.1399599</v>
@@ -24022,7 +24087,7 @@
       <c r="A19" s="27"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D19" s="26">
         <v>0.21854589999999999</v>
@@ -24039,7 +24104,7 @@
         <v>3.0709170000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D20" s="5">
         <v>0.14065949999999999</v>
@@ -24050,7 +24115,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D21" s="5">
         <v>0.16336629999999999</v>
@@ -24061,7 +24126,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D22" s="5">
         <v>0.43358960000000002</v>
@@ -24074,7 +24139,7 @@
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D23" s="26">
         <v>0.24288660000000001</v>
@@ -24094,7 +24159,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24108,7 +24173,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -24116,16 +24181,16 @@
         <v>801</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -24136,7 +24201,7 @@
         <v>2.132304</v>
       </c>
       <c r="C4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D4" s="5">
         <v>2.9448660000000002</v>
@@ -24148,7 +24213,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D5" s="5">
         <v>2.8456329999999999</v>
@@ -24160,7 +24225,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D6" s="5">
         <v>1.983765</v>
@@ -24172,7 +24237,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D7" s="5">
         <v>5.0540580000000002E-2</v>
@@ -24184,7 +24249,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D8" s="5">
         <v>1.0085230000000001</v>
@@ -24196,7 +24261,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D9" s="5">
         <v>0.70421149999999999</v>
@@ -24208,7 +24273,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D10" s="5">
         <v>0.30573689999999998</v>
@@ -24220,7 +24285,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D11" s="5">
         <v>1.3493390000000001</v>
@@ -24232,7 +24297,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D12" s="5">
         <v>5.6713829999999996</v>
@@ -24244,7 +24309,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D13" s="5">
         <v>0.41284989999999999</v>
@@ -24256,7 +24321,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D14" s="5">
         <v>0.29082920000000001</v>
@@ -24268,7 +24333,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D15" s="5">
         <v>2.386911</v>
@@ -24281,7 +24346,7 @@
       <c r="A16" s="27"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D16" s="26">
         <v>0.59249989999999997</v>
@@ -24298,7 +24363,7 @@
         <v>1.974137</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D17" s="5">
         <v>4.0123470000000001</v>
@@ -24309,7 +24374,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="33" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D18" s="5">
         <v>3.6243300000000001</v>
@@ -24320,7 +24385,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="33" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D19" s="5">
         <v>0.67335880000000004</v>
@@ -24331,7 +24396,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D20" s="5">
         <v>0.31520490000000001</v>
@@ -24342,7 +24407,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D21" s="5">
         <v>1.175883</v>
@@ -24353,7 +24418,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D22" s="5">
         <v>1.7407870000000001</v>
@@ -24364,7 +24429,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D23" s="5">
         <v>2.8997109999999999</v>
@@ -24375,7 +24440,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D24" s="5">
         <v>0.83160889999999998</v>
@@ -24386,7 +24451,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D25" s="5">
         <v>0.44630799999999998</v>
@@ -24397,7 +24462,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D26" s="5">
         <v>0.61730980000000002</v>
@@ -24408,7 +24473,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D27" s="5">
         <v>0.97715339999999995</v>
@@ -24419,7 +24484,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D28" s="5">
         <v>0.93446949999999995</v>
@@ -24430,7 +24495,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D29" s="5">
         <v>2.1245020000000001</v>
@@ -24441,7 +24506,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D30" s="5">
         <v>0.43673899999999999</v>
@@ -24452,7 +24517,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D31" s="5">
         <v>8.5900199999999996E-2</v>
@@ -24463,6 +24528,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24471,7 +24537,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24484,27 +24550,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>710</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>807</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -24999,7 +25065,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25020,7 +25086,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -25211,7 +25277,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -25346,7 +25412,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
